--- a/Firmware/v1.2 Beta - Hard v0.3 to v0.4/LCD - EEPROM - Layout - Firm v12.xlsx
+++ b/Firmware/v1.2 Beta - Hard v0.3 to v0.4/LCD - EEPROM - Layout - Firm v12.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="95">
   <si>
     <t>01</t>
   </si>
@@ -227,12 +227,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -300,6 +294,12 @@
   </si>
   <si>
     <t>Contrast</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -774,8 +774,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AF119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,7 @@
         <v>33</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>23</v>
@@ -1153,20 +1153,20 @@
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>49</v>
@@ -1175,7 +1175,7 @@
         <v>47</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>34</v>
@@ -1209,17 +1209,17 @@
       <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>90</v>
+      <c r="K10" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>47</v>
@@ -1239,64 +1239,58 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1993,7 +1987,7 @@
         <v>55</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>61</v>
@@ -3621,7 +3615,7 @@
         <v>25</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>52</v>
@@ -4670,7 +4664,7 @@
         <v>62</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P110" s="5"/>
       <c r="Q110" s="6" t="s">
@@ -4686,7 +4680,7 @@
         <v>62</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.25">
@@ -4739,7 +4733,7 @@
         <v>62</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.25">
@@ -4760,7 +4754,7 @@
         <v>62</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="6" t="s">
@@ -4776,7 +4770,7 @@
         <v>62</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P112" s="5"/>
       <c r="Q112" s="6" t="s">
@@ -4866,7 +4860,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>52</v>
@@ -5112,28 +5106,28 @@
   <sheetData>
     <row r="1" spans="1:135" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="CY1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI1" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ1" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="BQ1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="CH1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="CY1" s="17" t="s">
-        <v>80</v>
-      </c>
       <c r="DP1" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:135" x14ac:dyDescent="0.25">
@@ -21585,13 +21579,13 @@
     </row>
     <row r="34" spans="1:135" ht="57" x14ac:dyDescent="0.25">
       <c r="EC34" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="ED34" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE34" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="ED34" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="EE34" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
